--- a/modified_CPatKMCE.xlsx
+++ b/modified_CPatKMCE.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="2XHmAa9WlQNoTN68soRz0UVFTFaomn0n2jX6Nbisaeo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ybf3ib56Qv67j3bB3LGDiryIbnH4VvD3kN04XidAPtA="/>
     </ext>
   </extLst>
 </workbook>
@@ -2536,7 +2536,7 @@
         <v>9.1107184E9</v>
       </c>
     </row>
-    <row r="11" ht="14.25" hidden="1" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>8.309896668E9</v>
       </c>
     </row>
-    <row r="12" ht="14.25" hidden="1" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>8.30936112E9</v>
       </c>
     </row>
-    <row r="22" ht="14.25" hidden="1" customHeight="1">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>74</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>8.712722546E9</v>
       </c>
     </row>
-    <row r="23" ht="14.25" hidden="1" customHeight="1">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>9.618021265E9</v>
       </c>
     </row>
-    <row r="24" ht="14.25" hidden="1" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>80</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>9.440239639E9</v>
       </c>
     </row>
-    <row r="25" ht="14.25" hidden="1" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>8.121134541E9</v>
       </c>
     </row>
-    <row r="26" ht="14.25" hidden="1" customHeight="1">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>86</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>7.7802216E9</v>
       </c>
     </row>
-    <row r="27" ht="14.25" hidden="1" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>89</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>6.302307704E9</v>
       </c>
     </row>
-    <row r="28" ht="14.25" hidden="1" customHeight="1">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>92</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>7.416298664E9</v>
       </c>
     </row>
-    <row r="29" ht="14.25" hidden="1" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>95</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>9.490685152E9</v>
       </c>
     </row>
-    <row r="30" ht="14.25" hidden="1" customHeight="1">
+    <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>98</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>7.780638269E9</v>
       </c>
     </row>
-    <row r="31" ht="14.25" hidden="1" customHeight="1">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>101</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>9.963492273E9</v>
       </c>
     </row>
-    <row r="32" ht="14.25" hidden="1" customHeight="1">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>104</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>9.182193161E9</v>
       </c>
     </row>
-    <row r="33" ht="14.25" hidden="1" customHeight="1">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>9.347450296E9</v>
       </c>
     </row>
-    <row r="40" ht="14.25" hidden="1" customHeight="1">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>128</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>9.441839505E9</v>
       </c>
     </row>
-    <row r="42" ht="14.25" hidden="1" customHeight="1">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>135</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>9.390340044E9</v>
       </c>
     </row>
-    <row r="44" ht="14.25" hidden="1" customHeight="1">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>141</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>9.381014396E9</v>
       </c>
     </row>
-    <row r="45" ht="14.25" hidden="1" customHeight="1">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>144</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>9.39124187E9</v>
       </c>
     </row>
-    <row r="46" ht="14.25" hidden="1" customHeight="1">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>147</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>6.30508288E9</v>
       </c>
     </row>
-    <row r="47" ht="14.25" hidden="1" customHeight="1">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>150</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>6.302956528E9</v>
       </c>
     </row>
-    <row r="48" ht="14.25" hidden="1" customHeight="1">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>152</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>8.341810559E9</v>
       </c>
     </row>
-    <row r="49" ht="14.25" hidden="1" customHeight="1">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>155</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>7.095036587E9</v>
       </c>
     </row>
-    <row r="50" ht="14.25" hidden="1" customHeight="1">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>158</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>7.98984196E9</v>
       </c>
     </row>
-    <row r="52" ht="14.25" hidden="1" customHeight="1">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>164</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>9.515494262E9</v>
       </c>
     </row>
-    <row r="63" ht="14.25" hidden="1" customHeight="1">
+    <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>197</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>6.301785535E9</v>
       </c>
     </row>
-    <row r="75" ht="14.25" hidden="1" customHeight="1">
+    <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="6" t="s">
         <v>233</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>9.000675258E9</v>
       </c>
     </row>
-    <row r="86" ht="14.25" hidden="1" customHeight="1">
+    <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="6" t="s">
         <v>267</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>7.6709658745E10</v>
       </c>
     </row>
-    <row r="87" ht="14.25" hidden="1" customHeight="1">
+    <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>270</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>7.680092661E9</v>
       </c>
     </row>
-    <row r="88" ht="14.25" hidden="1" customHeight="1">
+    <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="6" t="s">
         <v>273</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>9.666774012E9</v>
       </c>
     </row>
-    <row r="102" ht="14.25" hidden="1" customHeight="1">
+    <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>315</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>9.381765309E9</v>
       </c>
     </row>
-    <row r="104" ht="14.25" hidden="1" customHeight="1">
+    <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>321</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>8.34150091E9</v>
       </c>
     </row>
-    <row r="109" ht="14.25" hidden="1" customHeight="1">
+    <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>336</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="129" ht="14.25" hidden="1" customHeight="1">
+    <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>394</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>9.182643686E9</v>
       </c>
     </row>
-    <row r="130" ht="14.25" hidden="1" customHeight="1">
+    <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>397</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>8.074204185E9</v>
       </c>
     </row>
-    <row r="132" ht="14.25" hidden="1" customHeight="1">
+    <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>403</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="170" ht="14.25" hidden="1" customHeight="1">
+    <row r="170" ht="14.25" customHeight="1">
       <c r="A170" s="6" t="s">
         <v>518</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>8.309920427E9</v>
       </c>
     </row>
-    <row r="199" ht="14.25" hidden="1" customHeight="1">
+    <row r="199" ht="14.25" customHeight="1">
       <c r="A199" s="3" t="s">
         <v>605</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="203" ht="14.25" hidden="1" customHeight="1">
+    <row r="203" ht="14.25" customHeight="1">
       <c r="A203" s="3" t="s">
         <v>618</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>9.390938749E9</v>
       </c>
     </row>
-    <row r="207" ht="14.25" hidden="1" customHeight="1">
+    <row r="207" ht="14.25" customHeight="1">
       <c r="A207" s="6" t="s">
         <v>630</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>9.347387221E9</v>
       </c>
     </row>
-    <row r="208" ht="14.25" hidden="1" customHeight="1">
+    <row r="208" ht="14.25" customHeight="1">
       <c r="A208" s="6" t="s">
         <v>633</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>6.281182414E9</v>
       </c>
     </row>
-    <row r="209" ht="14.25" hidden="1" customHeight="1">
+    <row r="209" ht="14.25" customHeight="1">
       <c r="A209" s="13" t="s">
         <v>636</v>
       </c>
@@ -8641,11 +8641,6 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$F$209">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="2nd"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A1:F209">
       <sortCondition ref="D1:D209"/>
     </sortState>
